--- a/comparaison.xlsx
+++ b/comparaison.xlsx
@@ -6,29 +6,31 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-06 16 44 27" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-06 14 55 57" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-06" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-02 13 32 38" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-02 09 46 00" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-02 09 39 39" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-02" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 12 06 14" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 12 01 44" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 58 08" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 50 46" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 46 43" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 43 46" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 35 00" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 12 36" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 11 04" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 10 55 58" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 10 35 22" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-03-31 16 51 12" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-03-31 16 34 11" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-03-31" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-16 14 08 55" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-16" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-06 16 44 27" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-06 14 55 57" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-06" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-02 13 32 38" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-02 09 46 00" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-02 09 39 39" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-02" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 12 06 14" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 12 01 44" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 58 08" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 50 46" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 46 43" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 43 46" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 35 00" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 12 36" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 11 04" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 10 55 58" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 10 35 22" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-03-31 16 51 12" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-03-31 16 34 11" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-03-31" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -546,7 +548,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>814.8</v>
+        <v>815.25</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>633</v>
@@ -560,10 +562,8 @@
       <c r="G2" t="n">
         <v>654.89</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="H2" t="n">
+        <v>689</v>
       </c>
       <c r="I2" t="n">
         <v>634</v>
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1091.39</v>
+        <v>1126.08</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>662.62</v>
+        <v>795.15</v>
       </c>
       <c r="H3" t="n">
         <v>1011.6</v>
@@ -618,7 +618,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>16%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
         <v>281.59</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>255.9</v>
+        <v>244.9</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>4%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>330.68</v>
+        <v>329.5</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>294</v>
@@ -726,34 +726,34 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>634.64</v>
+        <v>630.6</v>
       </c>
       <c r="D6" t="n">
         <v>635</v>
       </c>
       <c r="E6" t="n">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="F6" t="n">
-        <v>609.35</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>550.37</v>
+        <v>673.38</v>
+      </c>
+      <c r="G6" t="n">
+        <v>660.45</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="5" t="n">
         <v>619.5</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>1%</t>
         </is>
       </c>
     </row>
@@ -774,23 +774,17 @@
       <c r="D7" s="4" t="n">
         <v>375</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="E7" t="n">
+        <v>389</v>
+      </c>
+      <c r="F7" t="n">
+        <v>443.34</v>
       </c>
       <c r="G7" t="n">
         <v>394.54</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="H7" t="n">
+        <v>410.6</v>
       </c>
       <c r="I7" t="n">
         <v>394.58</v>
@@ -816,19 +810,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>555.76</v>
-      </c>
-      <c r="D8" t="n">
+        <v>551.74</v>
+      </c>
+      <c r="D8" s="4" t="n">
         <v>494</v>
       </c>
       <c r="E8" t="n">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="F8" t="n">
-        <v>540.77</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>424.92</v>
+        <v>549.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>509.91</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -839,11 +833,11 @@
         <v>495</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -868,7 +862,7 @@
         <v>260</v>
       </c>
       <c r="F9" t="n">
-        <v>265.9</v>
+        <v>249.9</v>
       </c>
       <c r="G9" t="n">
         <v>238.42</v>
@@ -912,13 +906,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="F10" t="n">
+        <v>197.21</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>192.91</v>
+        <v>192.92</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -949,7 +941,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>658.8</v>
+        <v>809.4400000000001</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -991,8 +983,8 @@
           <t>Chauffe-eau électrique 150L ATLANTIC Chaufféo horizontal sortie basse</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>495.9</v>
+      <c r="C12" s="4" t="n">
+        <v>423.07</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1007,17 +999,19 @@
       <c r="F12" t="n">
         <v>496.9</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" t="n">
         <v>423.29</v>
       </c>
-      <c r="H12" t="n">
-        <v>542.4</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="I12" t="n">
         <v>432.25</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1054,23 +1048,23 @@
       <c r="F13" t="n">
         <v>609.99</v>
       </c>
-      <c r="G13" s="4" t="n">
-        <v>589.9</v>
+      <c r="G13" t="n">
+        <v>599.91</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="5" t="n">
         <v>590</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1080,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>397.54</v>
+        <v>367.12</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1099,7 +1093,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>412.79</v>
+        <v>412.83</v>
       </c>
       <c r="G14" s="4" t="n">
         <v>359.09</v>
@@ -1184,7 +1178,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>369.8</v>
+        <v>338.51</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>331</v>
@@ -1193,7 +1187,7 @@
         <v>343</v>
       </c>
       <c r="F16" t="n">
-        <v>374.15</v>
+        <v>374.18</v>
       </c>
       <c r="G16" t="n">
         <v>352.76</v>
@@ -1233,13 +1227,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>606</v>
+        <v>642</v>
       </c>
       <c r="F17" t="n">
-        <v>648.12</v>
+        <v>649.63</v>
       </c>
       <c r="G17" t="n">
-        <v>614.38</v>
+        <v>622.5</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>599</v>
@@ -1268,7 +1262,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>529.09</v>
+        <v>479.9</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1281,10 +1275,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>516.7</v>
+        <v>522.9</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>394.14</v>
+        <v>472.97</v>
       </c>
       <c r="H18" t="n">
         <v>602.4</v>
@@ -1297,7 +1291,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>1%</t>
         </is>
       </c>
     </row>
@@ -1312,8 +1306,8 @@
           <t>Chauffe-eau électrique 150L ATLANTIC Zénéo Vertical sur Socle</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>583.91</v>
+      <c r="C19" s="4" t="n">
+        <v>528</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1324,19 +1318,19 @@
         <v>600.86</v>
       </c>
       <c r="F19" t="n">
-        <v>609.0700000000001</v>
+        <v>609.12</v>
       </c>
       <c r="G19" t="n">
-        <v>543.5599999999999</v>
-      </c>
-      <c r="H19" s="4" t="n">
+        <v>543.5700000000001</v>
+      </c>
+      <c r="H19" t="n">
         <v>529</v>
       </c>
       <c r="I19" t="n">
         <v>532</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1406,14 +1400,18 @@
           <t>Chauffe-eau électrique 200L THERMOR Duralis Vertical Stable</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>573.62</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>603</v>
       </c>
-      <c r="E21" s="4" t="n">
-        <v>568</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1428,15 +1426,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="5" t="n">
         <v>599</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -1451,16 +1449,16 @@
           <t>Chauffe-eau électrique 250L ATLANTIC Vizengo Vertical Sur Socle</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>782.95</v>
+      <c r="C22" s="4" t="n">
+        <v>763</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E22" s="4" t="n">
-        <v>760</v>
+      <c r="E22" t="n">
+        <v>810</v>
       </c>
       <c r="F22" t="n">
         <v>1012.28</v>
@@ -1475,7 +1473,7 @@
         <v>764</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1495,19 +1493,19 @@
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>592.0599999999999</v>
+        <v>601.9</v>
       </c>
       <c r="D23" t="n">
         <v>606</v>
       </c>
       <c r="E23" t="n">
-        <v>633.88</v>
+        <v>655</v>
       </c>
       <c r="F23" t="n">
-        <v>683.12</v>
+        <v>746.9</v>
       </c>
       <c r="G23" t="n">
-        <v>605.99</v>
+        <v>651.5599999999999</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1522,7 +1520,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -1546,13 +1544,13 @@
         <v>535</v>
       </c>
       <c r="E24" t="n">
-        <v>503.2</v>
+        <v>506</v>
       </c>
       <c r="F24" s="4" t="n">
         <v>468</v>
       </c>
       <c r="G24" t="n">
-        <v>514.03</v>
+        <v>514.04</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1590,8 +1588,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E25" s="4" t="n">
-        <v>444</v>
+      <c r="E25" t="n">
+        <v>469</v>
       </c>
       <c r="F25" t="n">
         <v>594.3200000000001</v>
@@ -1604,15 +1602,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="5" t="n">
         <v>451</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -1627,35 +1625,37 @@
           <t>Chauffe-eau électrique 200L THERMOR Duralis Mural Vertical</t>
         </is>
       </c>
-      <c r="C26" s="4" t="n">
-        <v>372.85</v>
+      <c r="C26" t="n">
+        <v>437.95</v>
       </c>
       <c r="D26" t="n">
         <v>385</v>
       </c>
-      <c r="E26" t="n">
-        <v>434.5</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="F26" t="n">
         <v>440.9</v>
       </c>
       <c r="G26" t="n">
-        <v>382.79</v>
+        <v>397.6</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="5" t="n">
         <v>382</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>474.28</v>
+        <v>432.86</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1684,15 +1684,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>472.79</v>
+        <v>472.83</v>
       </c>
       <c r="G27" t="n">
         <v>432.66</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="H27" t="n">
+        <v>513.4</v>
       </c>
       <c r="I27" s="5" t="n">
         <v>426</v>
@@ -1736,7 +1734,7 @@
         <v>402.89</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>301.58</v>
+        <v>361.9</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1751,7 +1749,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>16%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -1767,19 +1765,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>335.39</v>
+        <v>393.23</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>320</v>
       </c>
       <c r="E29" t="n">
-        <v>392.3</v>
+        <v>392</v>
       </c>
       <c r="F29" t="n">
         <v>411.02</v>
       </c>
       <c r="G29" t="n">
-        <v>334.48</v>
+        <v>347.08</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1857,7 +1855,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Manomano</t>
+          <t>ManoMano.fr</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -1903,10 +1901,8 @@
       <c r="E2" t="n">
         <v>606</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="F2" t="n">
+        <v>648.12</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>511.98</v>
@@ -1945,10 +1941,8 @@
       <c r="E3" t="n">
         <v>760</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="F3" t="n">
+        <v>1012.28</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>636.96</v>
@@ -1991,10 +1985,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="F4" t="n">
+        <v>281.59</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>204.08</v>
@@ -2107,10 +2099,8 @@
           <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="C2" t="n">
+        <v>658.91</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -2128,7 +2118,13 @@
       <c r="G2" s="4" t="n">
         <v>511.98</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>599</v>
+      </c>
+      <c r="I2" t="n">
+        <v>609</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>15%</t>
         </is>
@@ -2146,15 +2142,17 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>556.62</v>
+        <v>848</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>444</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -2162,9 +2160,15 @@
         </is>
       </c>
       <c r="G3" s="4" t="n">
-        <v>376.48</v>
-      </c>
-      <c r="H3" t="inlineStr">
+        <v>662.62</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1011.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>795.49</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>16%</t>
         </is>
@@ -2205,6 +2209,14 @@
         <v>204.08</v>
       </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>256</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>20%</t>
         </is>
@@ -2221,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2237,6 +2249,8 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2267,15 +2281,25 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Manomano</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Domomat.com</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
         <is>
           <t>Eau-Go</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Ecart</t>
         </is>
@@ -2293,25 +2317,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>706.22</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>633</v>
+        <v>658.91</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>712</v>
+        <v>606</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>654.89</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>3%</t>
+      <c r="G2" s="4" t="n">
+        <v>511.98</v>
+      </c>
+      <c r="H2" t="n">
+        <v>599</v>
+      </c>
+      <c r="I2" t="n">
+        <v>609</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>15%</t>
         </is>
       </c>
     </row>
@@ -2327,29 +2359,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>848</v>
+        <v>782.95</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="E3" t="n">
+        <v>760</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
-        <v>662.62</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0%</t>
+      <c r="G3" s="4" t="n">
+        <v>636.96</v>
+      </c>
+      <c r="H3" t="n">
+        <v>984</v>
+      </c>
+      <c r="I3" t="n">
+        <v>764</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>16%</t>
         </is>
       </c>
     </row>
@@ -2384,12 +2420,20 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="4" t="n">
         <v>204.08</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>256</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>20%</t>
         </is>
       </c>
     </row>
@@ -2404,7 +2448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2420,6 +2464,8 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2450,15 +2496,25 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Manomano</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Domomat.com</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
         <is>
           <t>Eau-Go</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Ecart</t>
         </is>
@@ -2475,8 +2531,10 @@
           <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>658.91</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -2486,11 +2544,13 @@
       <c r="E2" t="n">
         <v>606</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="n">
         <v>511.98</v>
-      </c>
-      <c r="G2" t="n">
-        <v>609</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -2510,23 +2570,23 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>848</v>
+        <v>556.62</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>662.62</v>
-      </c>
-      <c r="G3" t="n">
-        <v>795.49</v>
+      <c r="E3" t="n">
+        <v>444</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>376.48</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -2560,11 +2620,13 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="n">
         <v>204.08</v>
-      </c>
-      <c r="G4" t="n">
-        <v>256</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2655,25 +2717,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>658.91</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>706.22</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>633</v>
       </c>
       <c r="E2" t="n">
-        <v>606</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>511.98</v>
+        <v>712</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>609</v>
+        <v>654.89</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>3%</t>
         </is>
       </c>
     </row>
@@ -2689,25 +2751,29 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>782.95</v>
+        <v>848</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>760</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>636.96</v>
-      </c>
-      <c r="G3" t="n">
-        <v>764</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>662.62</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>16%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -2737,15 +2803,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="n">
         <v>204.08</v>
       </c>
-      <c r="G4" t="n">
-        <v>256</v>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -2755,6 +2823,362 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Produit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Référence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sobrico.com</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Factorydirect</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Domotelec</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Domomat.com</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Eau-Go</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ecart</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>154330-L</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>658.91</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>606</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>511.98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>609</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>154430-L</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>848</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>662.62</v>
+      </c>
+      <c r="G3" t="n">
+        <v>795.49</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>89789671-L</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>204.08</v>
+      </c>
+      <c r="G4" t="n">
+        <v>256</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Produit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Référence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sobrico.com</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Factorydirect</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Domotelec</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Domomat.com</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Eau-Go</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ecart</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>154330-L</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>658.91</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>606</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>511.98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>609</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>154430-L</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>782.95</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>760</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>636.96</v>
+      </c>
+      <c r="G3" t="n">
+        <v>764</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>89789671-L</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>204.08</v>
+      </c>
+      <c r="G4" t="n">
+        <v>256</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2859,7 +3283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2965,7 +3389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3071,7 +3495,1353 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Produit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Référence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sobrico.com</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Factorydirect</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Domotelec</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ManoMano.fr</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Domomat.com</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Eau-Go</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ecart</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>154330-L</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>815.25</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>633</v>
+      </c>
+      <c r="E2" t="n">
+        <v>712</v>
+      </c>
+      <c r="F2" t="n">
+        <v>700.85</v>
+      </c>
+      <c r="G2" t="n">
+        <v>654.89</v>
+      </c>
+      <c r="H2" t="n">
+        <v>689</v>
+      </c>
+      <c r="I2" t="n">
+        <v>634</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>154430-L</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>848</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>795.15</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>795.49</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>89789671-L</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>281.59</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>256</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>051020-L</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Chaufféo Plus vertical mural</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>329.5</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>294</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>309.3</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>309</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>292045-L</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L THERMOR Duralis Vertical Stable</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>630.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>635</v>
+      </c>
+      <c r="E6" t="n">
+        <v>655</v>
+      </c>
+      <c r="F6" t="n">
+        <v>673.38</v>
+      </c>
+      <c r="G6" t="n">
+        <v>660.45</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>619.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>153120-L</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Zénéo Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>437.73</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>375</v>
+      </c>
+      <c r="E7" t="n">
+        <v>389</v>
+      </c>
+      <c r="F7" t="n">
+        <v>443.34</v>
+      </c>
+      <c r="G7" t="n">
+        <v>394.54</v>
+      </c>
+      <c r="H7" t="n">
+        <v>410.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>394.58</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>052130-L</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Chaufféo Plus vertical sur socle</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>551.74</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>494</v>
+      </c>
+      <c r="E8" t="n">
+        <v>526</v>
+      </c>
+      <c r="F8" t="n">
+        <v>549.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>509.91</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>495</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>261025-L</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 100L - THERMOR Steatis Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>229.21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>277</v>
+      </c>
+      <c r="E9" t="n">
+        <v>260</v>
+      </c>
+      <c r="F9" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>238.42</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>239</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>261049-L</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 100L THERMOR Blindé Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>201</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>197.21</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>192.92</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>154120-L</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Vizengo Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>809.4400000000001</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>551.4400000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>794.54</v>
+      </c>
+      <c r="G11" t="n">
+        <v>508.86</v>
+      </c>
+      <c r="H11" t="n">
+        <v>634.1799999999999</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>508</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>023115-L</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L ATLANTIC Chaufféo horizontal sortie basse</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>423.07</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>496.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>423.29</v>
+      </c>
+      <c r="H12" t="n">
+        <v>542.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>432.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>7605044-L</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L DE DIETRICH Cor-Email THS Vertical Socle</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>609.99</v>
+      </c>
+      <c r="G13" t="n">
+        <v>599.91</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>590</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>023110-L</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 100L ATLANTIC Chaufféo horizontal sortie basse</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>367.12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>412.83</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>359.09</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>368</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>89789651-L</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 100L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>224.99</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>153115-L</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L ATLANTIC Zénéo Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>338.51</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>331</v>
+      </c>
+      <c r="E16" t="n">
+        <v>343</v>
+      </c>
+      <c r="F16" t="n">
+        <v>374.18</v>
+      </c>
+      <c r="G16" t="n">
+        <v>352.76</v>
+      </c>
+      <c r="H16" t="n">
+        <v>401</v>
+      </c>
+      <c r="I16" t="n">
+        <v>343.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>154320-L</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Zénéo - Vertical sur socle</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>661.55</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>642</v>
+      </c>
+      <c r="F17" t="n">
+        <v>649.63</v>
+      </c>
+      <c r="G17" t="n">
+        <v>622.5</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>599</v>
+      </c>
+      <c r="I17" t="n">
+        <v>609</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>023120-L</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Chaufféo horizontal sortie basse</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>522.9</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>472.97</v>
+      </c>
+      <c r="H18" t="n">
+        <v>602.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>479.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>154315-L</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L ATLANTIC Zénéo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>528</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>600.86</v>
+      </c>
+      <c r="F19" t="n">
+        <v>609.12</v>
+      </c>
+      <c r="G19" t="n">
+        <v>543.5700000000001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>529</v>
+      </c>
+      <c r="I19" t="n">
+        <v>532</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>89789661-L</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>239.99</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>238</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>282072-L</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L THERMOR Duralis Vertical Stable</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>603</v>
+      </c>
+      <c r="E21" t="n">
+        <v>631</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>599</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>154425-L</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 250L ATLANTIC Vizengo Vertical Sur Socle</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>763</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>810</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1012.28</v>
+      </c>
+      <c r="G22" t="n">
+        <v>764.35</v>
+      </c>
+      <c r="H22" t="n">
+        <v>984</v>
+      </c>
+      <c r="I22" t="n">
+        <v>764</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>282074-L</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 250L THERMOR Duralis Vertical Stable</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>601.9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>606</v>
+      </c>
+      <c r="E23" t="n">
+        <v>655</v>
+      </c>
+      <c r="F23" t="n">
+        <v>746.9</v>
+      </c>
+      <c r="G23" t="n">
+        <v>651.5599999999999</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>607</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>292031-L</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L THERMOR Steatis Stable</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>535</v>
+      </c>
+      <c r="E24" t="n">
+        <v>506</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>468</v>
+      </c>
+      <c r="G24" t="n">
+        <v>514.04</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>509</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>154115-L</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L ATLANTIC Vizengo Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>556.62</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>469</v>
+      </c>
+      <c r="F25" t="n">
+        <v>594.3200000000001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>451.78</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>451</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>281077-L</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L THERMOR Duralis Mural Vertical</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>437.95</v>
+      </c>
+      <c r="D26" t="n">
+        <v>385</v>
+      </c>
+      <c r="E26" t="n">
+        <v>435</v>
+      </c>
+      <c r="F26" t="n">
+        <v>440.9</v>
+      </c>
+      <c r="G26" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>382</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>022120-L</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Chauffeo vertical sur socle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>432.86</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>472.83</v>
+      </c>
+      <c r="G27" t="n">
+        <v>432.66</v>
+      </c>
+      <c r="H27" t="n">
+        <v>513.4</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>426</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>100019786-L</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L DE DIETRICH Cor-Email THS Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>402.89</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>361.9</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>362</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>871415-L</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L THERMOR Duralis Vertical Mural Compact</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>393.23</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>320</v>
+      </c>
+      <c r="E29" t="n">
+        <v>392</v>
+      </c>
+      <c r="F29" t="n">
+        <v>411.02</v>
+      </c>
+      <c r="G29" t="n">
+        <v>347.08</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>329</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3117,7 +4887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3163,132 +4933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Produit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Référence</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Sobrico.com</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Factorydirect</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Domotelec</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ManoMano.fr</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Domomat.com</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sanitaire-pas-cher</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Eau-Go</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Ecart</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>154330-L</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>814.8</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>633</v>
-      </c>
-      <c r="E2" t="n">
-        <v>712</v>
-      </c>
-      <c r="F2" t="n">
-        <v>700.85</v>
-      </c>
-      <c r="G2" t="n">
-        <v>654.89</v>
-      </c>
-      <c r="H2" t="n">
-        <v>689</v>
-      </c>
-      <c r="I2" t="n">
-        <v>634</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6278,7 +7923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9504,7 +11149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12753,7 +14398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12772,6 +14417,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Produit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Référence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sobrico.com</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Factorydirect</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Domotelec</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ManoMano.fr</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Domomat.com</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Eau-Go</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ecart</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>154330-L</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>814.8</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>633</v>
+      </c>
+      <c r="E2" t="n">
+        <v>712</v>
+      </c>
+      <c r="F2" t="n">
+        <v>700.85</v>
+      </c>
+      <c r="G2" t="n">
+        <v>654.89</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>634</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>154430-L</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>848</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1091.39</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>662.62</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1011.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>795.49</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>89789671-L</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>281.59</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>255.9</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>256</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>051020-L</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Chaufféo Plus vertical mural</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>330.68</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>294</v>
+      </c>
+      <c r="E5" t="n">
+        <v>314</v>
+      </c>
+      <c r="F5" t="n">
+        <v>320.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>309.3</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>309</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>292045-L</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L THERMOR Duralis Vertical Stable</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>634.64</v>
+      </c>
+      <c r="D6" t="n">
+        <v>635</v>
+      </c>
+      <c r="E6" t="n">
+        <v>641</v>
+      </c>
+      <c r="F6" t="n">
+        <v>609.35</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>550.37</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>619.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>153120-L</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Zénéo Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>437.73</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>375</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>394.54</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>394.58</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>052130-L</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Chaufféo Plus vertical sur socle</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>555.76</v>
+      </c>
+      <c r="D8" t="n">
+        <v>494</v>
+      </c>
+      <c r="E8" t="n">
+        <v>494</v>
+      </c>
+      <c r="F8" t="n">
+        <v>540.77</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>424.92</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>495</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>261025-L</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 100L - THERMOR Steatis Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>229.21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>277</v>
+      </c>
+      <c r="E9" t="n">
+        <v>260</v>
+      </c>
+      <c r="F9" t="n">
+        <v>265.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>238.42</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>239</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>261049-L</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 100L THERMOR Blindé Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>201</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>192.91</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>154120-L</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Vizengo Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>658.8</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>551.4400000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>794.54</v>
+      </c>
+      <c r="G11" t="n">
+        <v>508.86</v>
+      </c>
+      <c r="H11" t="n">
+        <v>634.1799999999999</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>508</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>023115-L</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L ATLANTIC Chaufféo horizontal sortie basse</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>495.9</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>496.9</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>423.29</v>
+      </c>
+      <c r="H12" t="n">
+        <v>542.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>432.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>7605044-L</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L DE DIETRICH Cor-Email THS Vertical Socle</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>609.99</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>589.9</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>590</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>023110-L</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 100L ATLANTIC Chaufféo horizontal sortie basse</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>397.54</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>412.79</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>359.09</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>368</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>89789651-L</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 100L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>224.99</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>153115-L</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L ATLANTIC Zénéo Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>369.8</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>331</v>
+      </c>
+      <c r="E16" t="n">
+        <v>343</v>
+      </c>
+      <c r="F16" t="n">
+        <v>374.15</v>
+      </c>
+      <c r="G16" t="n">
+        <v>352.76</v>
+      </c>
+      <c r="H16" t="n">
+        <v>401</v>
+      </c>
+      <c r="I16" t="n">
+        <v>343.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>154320-L</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Zénéo - Vertical sur socle</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>661.55</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>606</v>
+      </c>
+      <c r="F17" t="n">
+        <v>648.12</v>
+      </c>
+      <c r="G17" t="n">
+        <v>614.38</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>599</v>
+      </c>
+      <c r="I17" t="n">
+        <v>609</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>023120-L</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Chaufféo horizontal sortie basse</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>529.09</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>516.7</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>394.14</v>
+      </c>
+      <c r="H18" t="n">
+        <v>602.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>479.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>154315-L</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L ATLANTIC Zénéo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>583.91</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>600.86</v>
+      </c>
+      <c r="F19" t="n">
+        <v>609.0700000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>543.5599999999999</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>529</v>
+      </c>
+      <c r="I19" t="n">
+        <v>532</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>89789661-L</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>239.99</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>238</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>282072-L</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L THERMOR Duralis Vertical Stable</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>573.62</v>
+      </c>
+      <c r="D21" t="n">
+        <v>603</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>568</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>599</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>154425-L</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 250L ATLANTIC Vizengo Vertical Sur Socle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>782.95</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>760</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1012.28</v>
+      </c>
+      <c r="G22" t="n">
+        <v>764.35</v>
+      </c>
+      <c r="H22" t="n">
+        <v>984</v>
+      </c>
+      <c r="I22" t="n">
+        <v>764</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>282074-L</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 250L THERMOR Duralis Vertical Stable</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>592.0599999999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>606</v>
+      </c>
+      <c r="E23" t="n">
+        <v>633.88</v>
+      </c>
+      <c r="F23" t="n">
+        <v>683.12</v>
+      </c>
+      <c r="G23" t="n">
+        <v>605.99</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>607</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>292031-L</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L THERMOR Steatis Stable</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>535</v>
+      </c>
+      <c r="E24" t="n">
+        <v>503.2</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>468</v>
+      </c>
+      <c r="G24" t="n">
+        <v>514.03</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>509</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>154115-L</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L ATLANTIC Vizengo Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>556.62</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>444</v>
+      </c>
+      <c r="F25" t="n">
+        <v>594.3200000000001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>451.78</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>451</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>281077-L</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L THERMOR Duralis Mural Vertical</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>372.85</v>
+      </c>
+      <c r="D26" t="n">
+        <v>385</v>
+      </c>
+      <c r="E26" t="n">
+        <v>434.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>440.9</v>
+      </c>
+      <c r="G26" t="n">
+        <v>382.79</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>382</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>022120-L</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Chauffeo vertical sur socle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>474.28</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>472.79</v>
+      </c>
+      <c r="G27" t="n">
+        <v>432.66</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>426</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>100019786-L</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L DE DIETRICH Cor-Email THS Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>402.89</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>301.58</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>362</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>871415-L</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L THERMOR Duralis Vertical Mural Compact</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>335.39</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>320</v>
+      </c>
+      <c r="E29" t="n">
+        <v>392.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>411.02</v>
+      </c>
+      <c r="G29" t="n">
+        <v>334.48</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>329</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12896,7 +15889,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Produit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Référence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sobrico.com</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Factorydirect</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Domotelec</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ManoMano.fr</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Domomat.com</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Eau-Go</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ecart</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>154330-L</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>814.8</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>633</v>
+      </c>
+      <c r="E2" t="n">
+        <v>712</v>
+      </c>
+      <c r="F2" t="n">
+        <v>700.85</v>
+      </c>
+      <c r="G2" t="n">
+        <v>654.89</v>
+      </c>
+      <c r="H2" t="n">
+        <v>689</v>
+      </c>
+      <c r="I2" t="n">
+        <v>634</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13103,7 +16221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13228,7 +16346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13385,422 +16503,6 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>0%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Produit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Référence</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Sobrico.com</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Factorydirect</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Domotelec</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ManoMano.fr</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Domomat.com</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sanitaire-pas-cher</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Eau-Go</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Ecart</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>154330-L</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>706.22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>633</v>
-      </c>
-      <c r="E2" t="n">
-        <v>712</v>
-      </c>
-      <c r="F2" t="n">
-        <v>700.85</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>545.74</v>
-      </c>
-      <c r="H2" t="n">
-        <v>689</v>
-      </c>
-      <c r="I2" t="n">
-        <v>634</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>154430-L</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>782.95</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>760</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1012.28</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>636.96</v>
-      </c>
-      <c r="H3" t="n">
-        <v>984</v>
-      </c>
-      <c r="I3" t="n">
-        <v>764</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>89789671-L</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>281.59</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>204.08</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>256</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Produit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Référence</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Sobrico.com</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Factorydirect</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Domotelec</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ManoMano.fr</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Domomat.com</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sanitaire-pas-cher</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Eau-Go</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Ecart</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>154330-L</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>658.91</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>606</v>
-      </c>
-      <c r="F2" t="n">
-        <v>648.12</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>511.98</v>
-      </c>
-      <c r="H2" t="n">
-        <v>599</v>
-      </c>
-      <c r="I2" t="n">
-        <v>609</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>154430-L</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>782.95</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>760</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1012.28</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>636.96</v>
-      </c>
-      <c r="H3" t="n">
-        <v>984</v>
-      </c>
-      <c r="I3" t="n">
-        <v>764</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>89789671-L</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>281.59</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>204.08</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>256</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>20%</t>
         </is>
       </c>
     </row>
@@ -13863,7 +16565,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Manomano</t>
+          <t>ManoMano.fr</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -13899,33 +16601,29 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>658.91</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>706.22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>633</v>
       </c>
       <c r="E2" t="n">
-        <v>606</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>712</v>
+      </c>
+      <c r="F2" t="n">
+        <v>700.85</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>511.98</v>
+        <v>545.74</v>
       </c>
       <c r="H2" t="n">
-        <v>599</v>
+        <v>689</v>
       </c>
       <c r="I2" t="n">
-        <v>609</v>
+        <v>634</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>13%</t>
         </is>
       </c>
     </row>
@@ -13941,31 +16639,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>848</v>
+        <v>782.95</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="E3" t="n">
+        <v>760</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1012.28</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>662.62</v>
+        <v>636.96</v>
       </c>
       <c r="H3" t="n">
-        <v>1011.6</v>
+        <v>984</v>
       </c>
       <c r="I3" t="n">
-        <v>795.49</v>
+        <v>764</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -13999,10 +16693,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="F4" t="n">
+        <v>281.59</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>204.08</v>

--- a/comparaison.xlsx
+++ b/comparaison.xlsx
@@ -6,31 +6,35 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-16 14 08 55" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-16" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-06 16 44 27" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-06 14 55 57" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-06" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-02 13 32 38" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-02 09 46 00" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-02 09 39 39" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-02" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 12 06 14" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 12 01 44" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 58 08" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 50 46" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 46 43" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 43 46" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 35 00" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 12 36" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 11 04" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 10 55 58" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 10 35 22" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-03-31 16 51 12" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-03-31 16 34 11" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-03-31" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-05-05 11 34 57" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-05-05 11 24 11" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-05-05" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-05-02" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-16 14 08 55" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-16" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-06 16 44 27" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-06 14 55 57" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-06" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-02 13 32 38" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-02 09 46 00" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-02 09 39 39" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-02" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 12 06 14" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 12 01 44" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 58 08" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 50 46" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 46 43" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 43 46" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 35 00" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 12 36" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 11 11 04" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 10 55 58" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01 10 35 22" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-04-01" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-03-31 16 51 12" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-03-31 16 34 11" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-03-31" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="29" state="visible" r:id="rId29"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -463,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +485,6 @@
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -548,10 +551,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>815.25</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>633</v>
+        <v>699.85</v>
+      </c>
+      <c r="D2" t="n">
+        <v>654</v>
       </c>
       <c r="E2" t="n">
         <v>712</v>
@@ -565,15 +568,12 @@
       <c r="H2" t="n">
         <v>689</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="5" t="n">
         <v>634</v>
       </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0%</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>3%</t>
         </is>
       </c>
     </row>
@@ -588,8 +588,10 @@
           <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>848</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -605,7 +607,7 @@
         <v>1126.08</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>795.15</v>
+        <v>795.14</v>
       </c>
       <c r="H3" t="n">
         <v>1011.6</v>
@@ -613,10 +615,7 @@
       <c r="I3" t="n">
         <v>795.49</v>
       </c>
-      <c r="J3" t="n">
-        <v>6</v>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -662,10 +661,7 @@
       <c r="I4" t="n">
         <v>256</v>
       </c>
-      <c r="J4" t="n">
-        <v>6</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>4%</t>
         </is>
@@ -683,16 +679,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>329.5</v>
-      </c>
-      <c r="D5" s="4" t="n">
+        <v>357.9</v>
+      </c>
+      <c r="D5" t="n">
         <v>294</v>
       </c>
       <c r="E5" t="n">
         <v>314</v>
       </c>
       <c r="F5" t="n">
-        <v>320.9</v>
+        <v>336.71</v>
       </c>
       <c r="G5" t="n">
         <v>309.3</v>
@@ -702,15 +698,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>309</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>4%</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -726,7 +721,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>630.6</v>
+        <v>625.54</v>
       </c>
       <c r="D6" t="n">
         <v>635</v>
@@ -735,10 +730,10 @@
         <v>655</v>
       </c>
       <c r="F6" t="n">
-        <v>673.38</v>
+        <v>665.9</v>
       </c>
       <c r="G6" t="n">
-        <v>660.45</v>
+        <v>660.4400000000001</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -748,12 +743,9 @@
       <c r="I6" s="5" t="n">
         <v>619.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>8</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>1%</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -769,16 +761,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>437.73</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>375</v>
-      </c>
-      <c r="E7" t="n">
+        <v>434.9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>394</v>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>389</v>
       </c>
       <c r="F7" t="n">
-        <v>443.34</v>
+        <v>447.71</v>
       </c>
       <c r="G7" t="n">
         <v>394.54</v>
@@ -789,12 +781,9 @@
       <c r="I7" t="n">
         <v>394.58</v>
       </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>4%</t>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1%</t>
         </is>
       </c>
     </row>
@@ -810,10 +799,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>551.74</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>494</v>
+        <v>548.9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>509</v>
       </c>
       <c r="E8" t="n">
         <v>526</v>
@@ -822,22 +811,19 @@
         <v>549.9</v>
       </c>
       <c r="G8" t="n">
-        <v>509.91</v>
+        <v>509.9</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="5" t="n">
         <v>495</v>
       </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0%</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2%</t>
         </is>
       </c>
     </row>
@@ -875,10 +861,7 @@
       <c r="I9" t="n">
         <v>239</v>
       </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>4%</t>
         </is>
@@ -896,7 +879,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>209.9</v>
+        <v>198.49</v>
       </c>
       <c r="D10" t="n">
         <v>201</v>
@@ -907,10 +890,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>197.21</v>
+        <v>224.89</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>192.92</v>
+        <v>192.91</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -920,10 +903,7 @@
       <c r="I10" t="n">
         <v>199.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>6</v>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>3%</t>
         </is>
@@ -941,7 +921,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>809.4400000000001</v>
+        <v>658.8</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -963,10 +943,7 @@
       <c r="I11" s="5" t="n">
         <v>508</v>
       </c>
-      <c r="J11" t="n">
-        <v>8</v>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -983,8 +960,10 @@
           <t>Chauffe-eau électrique 150L ATLANTIC Chaufféo horizontal sortie basse</t>
         </is>
       </c>
-      <c r="C12" s="4" t="n">
-        <v>423.07</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -999,21 +978,16 @@
       <c r="F12" t="n">
         <v>496.9</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="4" t="n">
         <v>423.29</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="H12" t="n">
+        <v>542.4</v>
       </c>
       <c r="I12" t="n">
         <v>432.25</v>
       </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>2%</t>
         </is>
@@ -1049,7 +1023,7 @@
         <v>609.99</v>
       </c>
       <c r="G13" t="n">
-        <v>599.91</v>
+        <v>599.9</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1057,14 +1031,11 @@
         </is>
       </c>
       <c r="I13" s="5" t="n">
-        <v>590</v>
-      </c>
-      <c r="J13" t="n">
-        <v>8</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>1%</t>
+        <v>597</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -1079,8 +1050,8 @@
           <t>Chauffe-eau électrique 100L ATLANTIC Chaufféo horizontal sortie basse</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>367.12</v>
+      <c r="C14" s="4" t="n">
+        <v>358.09</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1093,9 +1064,9 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>412.83</v>
-      </c>
-      <c r="G14" s="4" t="n">
+        <v>416.89</v>
+      </c>
+      <c r="G14" t="n">
         <v>359.09</v>
       </c>
       <c r="H14" t="inlineStr">
@@ -1106,10 +1077,7 @@
       <c r="I14" t="n">
         <v>368</v>
       </c>
-      <c r="J14" t="n">
-        <v>6</v>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>2%</t>
         </is>
@@ -1157,10 +1125,7 @@
       <c r="I15" s="5" t="n">
         <v>217.5</v>
       </c>
-      <c r="J15" t="n">
-        <v>8</v>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>3%</t>
         </is>
@@ -1177,17 +1142,17 @@
           <t>Chauffe-eau électrique 150L ATLANTIC Zénéo Vertical Mural</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>338.51</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>331</v>
+      <c r="C16" s="4" t="n">
+        <v>332.29</v>
+      </c>
+      <c r="D16" t="n">
+        <v>343</v>
       </c>
       <c r="E16" t="n">
         <v>343</v>
       </c>
       <c r="F16" t="n">
-        <v>374.18</v>
+        <v>377.86</v>
       </c>
       <c r="G16" t="n">
         <v>352.76</v>
@@ -1198,10 +1163,7 @@
       <c r="I16" t="n">
         <v>343.2</v>
       </c>
-      <c r="J16" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>3%</t>
         </is>
@@ -1219,7 +1181,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>661.55</v>
+        <v>654.9</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1230,7 +1192,7 @@
         <v>642</v>
       </c>
       <c r="F17" t="n">
-        <v>649.63</v>
+        <v>730.1799999999999</v>
       </c>
       <c r="G17" t="n">
         <v>622.5</v>
@@ -1241,10 +1203,7 @@
       <c r="I17" t="n">
         <v>609</v>
       </c>
-      <c r="J17" t="n">
-        <v>7</v>
-      </c>
-      <c r="K17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>1%</t>
         </is>
@@ -1286,10 +1245,7 @@
       <c r="I18" t="n">
         <v>479.5</v>
       </c>
-      <c r="J18" t="n">
-        <v>6</v>
-      </c>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>1%</t>
         </is>
@@ -1318,10 +1274,10 @@
         <v>600.86</v>
       </c>
       <c r="F19" t="n">
-        <v>609.12</v>
+        <v>657.95</v>
       </c>
       <c r="G19" t="n">
-        <v>543.5700000000001</v>
+        <v>543.5599999999999</v>
       </c>
       <c r="H19" t="n">
         <v>529</v>
@@ -1329,10 +1285,7 @@
       <c r="I19" t="n">
         <v>532</v>
       </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -1380,10 +1333,7 @@
       <c r="I20" s="5" t="n">
         <v>238</v>
       </c>
-      <c r="J20" t="n">
-        <v>8</v>
-      </c>
-      <c r="K20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -1400,23 +1350,17 @@
           <t>Chauffe-eau électrique 200L THERMOR Duralis Vertical Stable</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="C21" s="4" t="n">
+        <v>593.72</v>
       </c>
       <c r="D21" t="n">
         <v>603</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="E21" t="n">
+        <v>631</v>
+      </c>
+      <c r="F21" t="n">
+        <v>644.03</v>
       </c>
       <c r="G21" t="n">
         <v>611.5</v>
@@ -1426,13 +1370,10 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" t="n">
         <v>599</v>
       </c>
-      <c r="J21" t="n">
-        <v>8</v>
-      </c>
-      <c r="K21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -1472,10 +1413,7 @@
       <c r="I22" t="n">
         <v>764</v>
       </c>
-      <c r="J22" t="n">
-        <v>2</v>
-      </c>
-      <c r="K22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -1493,7 +1431,7 @@
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>601.9</v>
+        <v>592.0599999999999</v>
       </c>
       <c r="D23" t="n">
         <v>606</v>
@@ -1502,10 +1440,10 @@
         <v>655</v>
       </c>
       <c r="F23" t="n">
-        <v>746.9</v>
+        <v>683.1900000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>651.5599999999999</v>
+        <v>651.55</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1515,12 +1453,9 @@
       <c r="I23" t="n">
         <v>607</v>
       </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0%</t>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2%</t>
         </is>
       </c>
     </row>
@@ -1535,10 +1470,8 @@
           <t>Chauffe-eau électrique 300L THERMOR Steatis Stable</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="C24" t="n">
+        <v>474.7</v>
       </c>
       <c r="D24" t="n">
         <v>535</v>
@@ -1550,7 +1483,7 @@
         <v>468</v>
       </c>
       <c r="G24" t="n">
-        <v>514.04</v>
+        <v>514.03</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1560,10 +1493,7 @@
       <c r="I24" t="n">
         <v>509</v>
       </c>
-      <c r="J24" t="n">
-        <v>5</v>
-      </c>
-      <c r="K24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>8%</t>
         </is>
@@ -1605,10 +1535,7 @@
       <c r="I25" s="5" t="n">
         <v>451</v>
       </c>
-      <c r="J25" t="n">
-        <v>8</v>
-      </c>
-      <c r="K25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -1625,8 +1552,8 @@
           <t>Chauffe-eau électrique 200L THERMOR Duralis Mural Vertical</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>437.95</v>
+      <c r="C26" s="4" t="n">
+        <v>372.85</v>
       </c>
       <c r="D26" t="n">
         <v>385</v>
@@ -1647,15 +1574,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I26" s="5" t="n">
+      <c r="I26" t="n">
         <v>382</v>
       </c>
-      <c r="J26" t="n">
-        <v>8</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0%</t>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2%</t>
         </is>
       </c>
     </row>
@@ -1670,8 +1594,10 @@
           <t>Chauffe-eau électrique 200L ATLANTIC Chauffeo vertical sur socle</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>432.86</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1684,21 +1610,18 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>472.83</v>
+        <v>477.49</v>
       </c>
       <c r="G27" t="n">
-        <v>432.66</v>
+        <v>441.66</v>
       </c>
       <c r="H27" t="n">
         <v>513.4</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>426</v>
-      </c>
-      <c r="J27" t="n">
-        <v>8</v>
-      </c>
-      <c r="K27" t="inlineStr">
+        <v>436</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>1%</t>
         </is>
@@ -1744,10 +1667,7 @@
       <c r="I28" t="n">
         <v>362</v>
       </c>
-      <c r="J28" t="n">
-        <v>6</v>
-      </c>
-      <c r="K28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -1765,7 +1685,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>393.23</v>
+        <v>335.39</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>320</v>
@@ -1787,10 +1707,7 @@
       <c r="I29" t="n">
         <v>329</v>
       </c>
-      <c r="J29" t="n">
-        <v>3</v>
-      </c>
-      <c r="K29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>2%</t>
         </is>
@@ -1882,56 +1799,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>154330-L</t>
+          <t>154430-L</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
+          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>658.91</v>
+        <v>848</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>606</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>648.12</v>
+        <v>1126.08</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>511.98</v>
+        <v>662.62</v>
       </c>
       <c r="H2" t="n">
-        <v>599</v>
+        <v>1011.6</v>
       </c>
       <c r="I2" t="n">
-        <v>609</v>
+        <v>795.49</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>16%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>154430-L</t>
+          <t>154330-L</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
+          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>782.95</v>
+        <v>706.22</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1939,57 +1858,53 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>760</v>
+        <v>712</v>
       </c>
       <c r="F3" t="n">
-        <v>1012.28</v>
+        <v>700.85</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>636.96</v>
-      </c>
-      <c r="H3" t="n">
-        <v>984</v>
+        <v>545.74</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="I3" t="n">
-        <v>764</v>
+        <v>634</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>16%</t>
+          <t>13%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>89789671-L</t>
+          <t>051020-L</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Chaufféo Plus vertical mural</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>330.68</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>294</v>
+      </c>
+      <c r="E4" t="n">
+        <v>314</v>
       </c>
       <c r="F4" t="n">
-        <v>281.59</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>204.08</v>
+        <v>320.9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>309.3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1997,11 +1912,11 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>4%</t>
         </is>
       </c>
     </row>
@@ -2016,7 +1931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2064,7 +1979,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Manomano</t>
+          <t>ManoMano.fr</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -2091,134 +2006,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>154330-L</t>
+          <t>023115-L</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
+          <t>Chauffe-eau électrique 150L ATLANTIC Chaufféo horizontal sortie basse</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>658.91</v>
+        <v>468.5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>606</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>496.9</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>511.98</v>
+        <v>423.29</v>
       </c>
       <c r="H2" t="n">
-        <v>599</v>
+        <v>542.4</v>
       </c>
       <c r="I2" t="n">
-        <v>609</v>
+        <v>432.25</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>154430-L</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>848</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>662.62</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1011.6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>795.49</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>89789671-L</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>204.08</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>256</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>20%</t>
+          <t>2%</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2281,7 +2104,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Manomano</t>
+          <t>ManoMano.fr</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -2308,58 +2131,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>154330-L</t>
+          <t>261049-L</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
+          <t>Chauffe-eau électrique 100L THERMOR Blindé Vertical Mural</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>658.91</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>606</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>247.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>201</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>197.21</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>511.98</v>
-      </c>
-      <c r="H2" t="n">
-        <v>599</v>
+        <v>160.76</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="I2" t="n">
-        <v>609</v>
+        <v>199.5</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>19%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>154430-L</t>
+          <t>154120-L</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
+          <t>Chauffe-eau électrique 200L ATLANTIC Vizengo Vertical Mural</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>782.95</v>
+        <v>658.8</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -2367,73 +2190,23 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>760</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>636.96</v>
+        <v>551.4400000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>794.54</v>
+      </c>
+      <c r="G3" t="n">
+        <v>508.86</v>
       </c>
       <c r="H3" t="n">
-        <v>984</v>
-      </c>
-      <c r="I3" t="n">
-        <v>764</v>
+        <v>634.1799999999999</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>508</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>89789671-L</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>204.08</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>256</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>20%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2269,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Manomano</t>
+          <t>ManoMano.fr</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -2531,30 +2304,30 @@
           <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="C2" t="n">
+        <v>706.22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>633</v>
       </c>
       <c r="E2" t="n">
-        <v>606</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>712</v>
+      </c>
+      <c r="F2" t="n">
+        <v>700.85</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>511.98</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>15%</t>
+        <v>545.74</v>
+      </c>
+      <c r="H2" t="n">
+        <v>689</v>
+      </c>
+      <c r="I2" t="n">
+        <v>634</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>13%</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2343,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>556.62</v>
+        <v>782.95</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -2578,17 +2351,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>444</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>760</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1012.28</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>376.48</v>
-      </c>
-      <c r="H3" t="inlineStr">
+        <v>636.96</v>
+      </c>
+      <c r="H3" t="n">
+        <v>984</v>
+      </c>
+      <c r="I3" t="n">
+        <v>764</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>16%</t>
         </is>
@@ -2620,15 +2397,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="F4" t="n">
+        <v>281.59</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>204.08</v>
       </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>256</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>20%</t>
         </is>
@@ -2640,6 +2423,844 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Produit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Référence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sobrico.com</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Factorydirect</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Domotelec</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ManoMano.fr</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Domomat.com</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Eau-Go</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ecart</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>154330-L</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>658.91</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>606</v>
+      </c>
+      <c r="F2" t="n">
+        <v>648.12</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>511.98</v>
+      </c>
+      <c r="H2" t="n">
+        <v>599</v>
+      </c>
+      <c r="I2" t="n">
+        <v>609</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>154430-L</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>782.95</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>760</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1012.28</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>636.96</v>
+      </c>
+      <c r="H3" t="n">
+        <v>984</v>
+      </c>
+      <c r="I3" t="n">
+        <v>764</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>89789671-L</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>281.59</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>204.08</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>256</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Produit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Référence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sobrico.com</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Factorydirect</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Domotelec</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Manomano</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Domomat.com</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Eau-Go</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ecart</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>154330-L</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>658.91</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>606</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>511.98</v>
+      </c>
+      <c r="H2" t="n">
+        <v>599</v>
+      </c>
+      <c r="I2" t="n">
+        <v>609</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>154430-L</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>848</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>662.62</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1011.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>795.49</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>89789671-L</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>204.08</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>256</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Produit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Référence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sobrico.com</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Factorydirect</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Domotelec</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Manomano</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Domomat.com</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Eau-Go</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ecart</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>154330-L</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>658.91</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>606</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>511.98</v>
+      </c>
+      <c r="H2" t="n">
+        <v>599</v>
+      </c>
+      <c r="I2" t="n">
+        <v>609</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>154430-L</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>782.95</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>760</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>636.96</v>
+      </c>
+      <c r="H3" t="n">
+        <v>984</v>
+      </c>
+      <c r="I3" t="n">
+        <v>764</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>89789671-L</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>204.08</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>256</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Produit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Référence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sobrico.com</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Factorydirect</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Domotelec</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Manomano</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Domomat.com</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Eau-Go</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ecart</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>154330-L</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>606</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>511.98</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>154430-L</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>556.62</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>444</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>376.48</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>89789671-L</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>204.08</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2822,7 +3443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3001,7 +3622,266 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Produit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Référence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sobrico.com</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Factorydirect</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Domotelec</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ManoMano.fr</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Domomat.com</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Eau-Go</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ecart</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>154330-L</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>699.85</v>
+      </c>
+      <c r="D2" t="n">
+        <v>654</v>
+      </c>
+      <c r="E2" t="n">
+        <v>712</v>
+      </c>
+      <c r="F2" t="n">
+        <v>700.85</v>
+      </c>
+      <c r="G2" t="n">
+        <v>654.89</v>
+      </c>
+      <c r="H2" t="n">
+        <v>689</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>634</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>154430-L</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1126.08</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>795.14</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1011.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>795.49</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>89789671-L</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>281.59</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>256</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>051020-L</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Chaufféo Plus vertical mural</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>357.9</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>309.3</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3178,7 +4058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3283,7 +4163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3389,7 +4269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3495,1353 +4375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Produit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Référence</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Sobrico.com</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Factorydirect</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Domotelec</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ManoMano.fr</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Domomat.com</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sanitaire-pas-cher</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Eau-Go</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Ecart</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>154330-L</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>815.25</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>633</v>
-      </c>
-      <c r="E2" t="n">
-        <v>712</v>
-      </c>
-      <c r="F2" t="n">
-        <v>700.85</v>
-      </c>
-      <c r="G2" t="n">
-        <v>654.89</v>
-      </c>
-      <c r="H2" t="n">
-        <v>689</v>
-      </c>
-      <c r="I2" t="n">
-        <v>634</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>154430-L</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>848</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>795.15</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>795.49</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>89789671-L</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>281.59</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>244.9</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>256</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>051020-L</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 200L ATLANTIC Chaufféo Plus vertical mural</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>329.5</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>294</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>309.3</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>309</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>292045-L</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 300L THERMOR Duralis Vertical Stable</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>630.6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>635</v>
-      </c>
-      <c r="E6" t="n">
-        <v>655</v>
-      </c>
-      <c r="F6" t="n">
-        <v>673.38</v>
-      </c>
-      <c r="G6" t="n">
-        <v>660.45</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>619.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>153120-L</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 200L ATLANTIC Zénéo Vertical Mural</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>437.73</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>375</v>
-      </c>
-      <c r="E7" t="n">
-        <v>389</v>
-      </c>
-      <c r="F7" t="n">
-        <v>443.34</v>
-      </c>
-      <c r="G7" t="n">
-        <v>394.54</v>
-      </c>
-      <c r="H7" t="n">
-        <v>410.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>394.58</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>052130-L</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 300L ATLANTIC Chaufféo Plus vertical sur socle</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>551.74</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>494</v>
-      </c>
-      <c r="E8" t="n">
-        <v>526</v>
-      </c>
-      <c r="F8" t="n">
-        <v>549.9</v>
-      </c>
-      <c r="G8" t="n">
-        <v>509.91</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>495</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>261025-L</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 100L - THERMOR Steatis Vertical Mural</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>229.21</v>
-      </c>
-      <c r="D9" t="n">
-        <v>277</v>
-      </c>
-      <c r="E9" t="n">
-        <v>260</v>
-      </c>
-      <c r="F9" t="n">
-        <v>249.9</v>
-      </c>
-      <c r="G9" t="n">
-        <v>238.42</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>239</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>261049-L</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 100L THERMOR Blindé Vertical Mural</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>209.9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>201</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>197.21</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>192.92</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>199.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>154120-L</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 200L ATLANTIC Vizengo Vertical Mural</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>809.4400000000001</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>551.4400000000001</v>
-      </c>
-      <c r="F11" t="n">
-        <v>794.54</v>
-      </c>
-      <c r="G11" t="n">
-        <v>508.86</v>
-      </c>
-      <c r="H11" t="n">
-        <v>634.1799999999999</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>508</v>
-      </c>
-      <c r="J11" t="n">
-        <v>8</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>023115-L</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 150L ATLANTIC Chaufféo horizontal sortie basse</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>423.07</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>496.9</v>
-      </c>
-      <c r="G12" t="n">
-        <v>423.29</v>
-      </c>
-      <c r="H12" t="n">
-        <v>542.4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>432.25</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>7605044-L</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 300L DE DIETRICH Cor-Email THS Vertical Socle</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>609.99</v>
-      </c>
-      <c r="G13" t="n">
-        <v>599.91</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>590</v>
-      </c>
-      <c r="J13" t="n">
-        <v>8</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>023110-L</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 100L ATLANTIC Chaufféo horizontal sortie basse</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>367.12</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>412.83</v>
-      </c>
-      <c r="G14" s="4" t="n">
-        <v>359.09</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>368</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>89789651-L</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 100L DE DIETRICH CEB Vertical Mural</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>224.99</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I15" s="5" t="n">
-        <v>217.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>8</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>153115-L</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 150L ATLANTIC Zénéo Vertical Mural</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>338.51</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>331</v>
-      </c>
-      <c r="E16" t="n">
-        <v>343</v>
-      </c>
-      <c r="F16" t="n">
-        <v>374.18</v>
-      </c>
-      <c r="G16" t="n">
-        <v>352.76</v>
-      </c>
-      <c r="H16" t="n">
-        <v>401</v>
-      </c>
-      <c r="I16" t="n">
-        <v>343.2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>154320-L</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 200L ATLANTIC Zénéo - Vertical sur socle</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>661.55</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>642</v>
-      </c>
-      <c r="F17" t="n">
-        <v>649.63</v>
-      </c>
-      <c r="G17" t="n">
-        <v>622.5</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>599</v>
-      </c>
-      <c r="I17" t="n">
-        <v>609</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>023120-L</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 200L ATLANTIC Chaufféo horizontal sortie basse</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>522.9</v>
-      </c>
-      <c r="G18" s="4" t="n">
-        <v>472.97</v>
-      </c>
-      <c r="H18" t="n">
-        <v>602.4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>479.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>154315-L</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 150L ATLANTIC Zénéo Vertical sur Socle</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>528</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>600.86</v>
-      </c>
-      <c r="F19" t="n">
-        <v>609.12</v>
-      </c>
-      <c r="G19" t="n">
-        <v>543.5700000000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>529</v>
-      </c>
-      <c r="I19" t="n">
-        <v>532</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>89789661-L</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 150L DE DIETRICH CEB Vertical Mural</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>239.99</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I20" s="5" t="n">
-        <v>238</v>
-      </c>
-      <c r="J20" t="n">
-        <v>8</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>282072-L</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 200L THERMOR Duralis Vertical Stable</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>603</v>
-      </c>
-      <c r="E21" t="n">
-        <v>631</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I21" s="5" t="n">
-        <v>599</v>
-      </c>
-      <c r="J21" t="n">
-        <v>8</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>154425-L</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 250L ATLANTIC Vizengo Vertical Sur Socle</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="n">
-        <v>763</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>810</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1012.28</v>
-      </c>
-      <c r="G22" t="n">
-        <v>764.35</v>
-      </c>
-      <c r="H22" t="n">
-        <v>984</v>
-      </c>
-      <c r="I22" t="n">
-        <v>764</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>282074-L</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 250L THERMOR Duralis Vertical Stable</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>601.9</v>
-      </c>
-      <c r="D23" t="n">
-        <v>606</v>
-      </c>
-      <c r="E23" t="n">
-        <v>655</v>
-      </c>
-      <c r="F23" t="n">
-        <v>746.9</v>
-      </c>
-      <c r="G23" t="n">
-        <v>651.5599999999999</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>607</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>292031-L</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 300L THERMOR Steatis Stable</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>535</v>
-      </c>
-      <c r="E24" t="n">
-        <v>506</v>
-      </c>
-      <c r="F24" s="4" t="n">
-        <v>468</v>
-      </c>
-      <c r="G24" t="n">
-        <v>514.04</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>509</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>154115-L</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 150L ATLANTIC Vizengo Vertical Mural</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>556.62</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>469</v>
-      </c>
-      <c r="F25" t="n">
-        <v>594.3200000000001</v>
-      </c>
-      <c r="G25" t="n">
-        <v>451.78</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I25" s="5" t="n">
-        <v>451</v>
-      </c>
-      <c r="J25" t="n">
-        <v>8</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>281077-L</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 200L THERMOR Duralis Mural Vertical</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>437.95</v>
-      </c>
-      <c r="D26" t="n">
-        <v>385</v>
-      </c>
-      <c r="E26" t="n">
-        <v>435</v>
-      </c>
-      <c r="F26" t="n">
-        <v>440.9</v>
-      </c>
-      <c r="G26" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I26" s="5" t="n">
-        <v>382</v>
-      </c>
-      <c r="J26" t="n">
-        <v>8</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>022120-L</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 200L ATLANTIC Chauffeo vertical sur socle</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>432.86</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>472.83</v>
-      </c>
-      <c r="G27" t="n">
-        <v>432.66</v>
-      </c>
-      <c r="H27" t="n">
-        <v>513.4</v>
-      </c>
-      <c r="I27" s="5" t="n">
-        <v>426</v>
-      </c>
-      <c r="J27" t="n">
-        <v>8</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>100019786-L</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 200L DE DIETRICH Cor-Email THS Vertical Mural</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>402.89</v>
-      </c>
-      <c r="G28" s="4" t="n">
-        <v>361.9</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>362</v>
-      </c>
-      <c r="J28" t="n">
-        <v>6</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>871415-L</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 150L THERMOR Duralis Vertical Mural Compact</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>393.23</v>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>320</v>
-      </c>
-      <c r="E29" t="n">
-        <v>392</v>
-      </c>
-      <c r="F29" t="n">
-        <v>411.02</v>
-      </c>
-      <c r="G29" t="n">
-        <v>347.08</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>329</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4887,7 +4421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4933,7 +4467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7923,7 +7457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11149,7 +10683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14398,7 +13932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14417,6 +13951,262 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Produit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Référence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sobrico.com</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Factorydirect</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Domotelec</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ManoMano.fr</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Domomat.com</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Eau-Go</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ecart</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>154430-L</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1126.08</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>795.14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1011.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>795.49</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>89789671-L</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>281.59</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>256</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Produit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Référence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sobrico.com</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Factorydirect</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Domotelec</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ManoMano.fr</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Domomat.com</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Eau-Go</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ecart</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14507,7 +14297,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>814.8</v>
+        <v>815.25</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>633</v>
@@ -14521,10 +14311,8 @@
       <c r="G2" t="n">
         <v>654.89</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="H2" t="n">
+        <v>689</v>
       </c>
       <c r="I2" t="n">
         <v>634</v>
@@ -14563,10 +14351,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1091.39</v>
+        <v>1126.08</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>662.62</v>
+        <v>795.15</v>
       </c>
       <c r="H3" t="n">
         <v>1011.6</v>
@@ -14579,7 +14367,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>16%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -14613,7 +14401,7 @@
         <v>281.59</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>255.9</v>
+        <v>244.9</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -14628,7 +14416,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>4%</t>
         </is>
       </c>
     </row>
@@ -14644,7 +14432,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>330.68</v>
+        <v>329.5</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>294</v>
@@ -14687,34 +14475,34 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>634.64</v>
+        <v>630.6</v>
       </c>
       <c r="D6" t="n">
         <v>635</v>
       </c>
       <c r="E6" t="n">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="F6" t="n">
-        <v>609.35</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>550.37</v>
+        <v>673.38</v>
+      </c>
+      <c r="G6" t="n">
+        <v>660.45</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="5" t="n">
         <v>619.5</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>1%</t>
         </is>
       </c>
     </row>
@@ -14735,23 +14523,17 @@
       <c r="D7" s="4" t="n">
         <v>375</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="E7" t="n">
+        <v>389</v>
+      </c>
+      <c r="F7" t="n">
+        <v>443.34</v>
       </c>
       <c r="G7" t="n">
         <v>394.54</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="H7" t="n">
+        <v>410.6</v>
       </c>
       <c r="I7" t="n">
         <v>394.58</v>
@@ -14777,19 +14559,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>555.76</v>
-      </c>
-      <c r="D8" t="n">
+        <v>551.74</v>
+      </c>
+      <c r="D8" s="4" t="n">
         <v>494</v>
       </c>
       <c r="E8" t="n">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="F8" t="n">
-        <v>540.77</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>424.92</v>
+        <v>549.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>509.91</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -14800,11 +14582,11 @@
         <v>495</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -14829,7 +14611,7 @@
         <v>260</v>
       </c>
       <c r="F9" t="n">
-        <v>265.9</v>
+        <v>249.9</v>
       </c>
       <c r="G9" t="n">
         <v>238.42</v>
@@ -14873,13 +14655,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="F10" t="n">
+        <v>197.21</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>192.91</v>
+        <v>192.92</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -14910,7 +14690,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>658.8</v>
+        <v>809.4400000000001</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -14952,8 +14732,8 @@
           <t>Chauffe-eau électrique 150L ATLANTIC Chaufféo horizontal sortie basse</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>495.9</v>
+      <c r="C12" s="4" t="n">
+        <v>423.07</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -14968,17 +14748,19 @@
       <c r="F12" t="n">
         <v>496.9</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" t="n">
         <v>423.29</v>
       </c>
-      <c r="H12" t="n">
-        <v>542.4</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="I12" t="n">
         <v>432.25</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -15015,23 +14797,23 @@
       <c r="F13" t="n">
         <v>609.99</v>
       </c>
-      <c r="G13" s="4" t="n">
-        <v>589.9</v>
+      <c r="G13" t="n">
+        <v>599.91</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="5" t="n">
         <v>590</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
     </row>
@@ -15047,7 +14829,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>397.54</v>
+        <v>367.12</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -15060,7 +14842,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>412.79</v>
+        <v>412.83</v>
       </c>
       <c r="G14" s="4" t="n">
         <v>359.09</v>
@@ -15145,7 +14927,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>369.8</v>
+        <v>338.51</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>331</v>
@@ -15154,7 +14936,7 @@
         <v>343</v>
       </c>
       <c r="F16" t="n">
-        <v>374.15</v>
+        <v>374.18</v>
       </c>
       <c r="G16" t="n">
         <v>352.76</v>
@@ -15194,13 +14976,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>606</v>
+        <v>642</v>
       </c>
       <c r="F17" t="n">
-        <v>648.12</v>
+        <v>649.63</v>
       </c>
       <c r="G17" t="n">
-        <v>614.38</v>
+        <v>622.5</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>599</v>
@@ -15229,7 +15011,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>529.09</v>
+        <v>479.9</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -15242,10 +15024,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>516.7</v>
+        <v>522.9</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>394.14</v>
+        <v>472.97</v>
       </c>
       <c r="H18" t="n">
         <v>602.4</v>
@@ -15258,7 +15040,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>1%</t>
         </is>
       </c>
     </row>
@@ -15273,8 +15055,8 @@
           <t>Chauffe-eau électrique 150L ATLANTIC Zénéo Vertical sur Socle</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>583.91</v>
+      <c r="C19" s="4" t="n">
+        <v>528</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -15285,19 +15067,19 @@
         <v>600.86</v>
       </c>
       <c r="F19" t="n">
-        <v>609.0700000000001</v>
+        <v>609.12</v>
       </c>
       <c r="G19" t="n">
-        <v>543.5599999999999</v>
-      </c>
-      <c r="H19" s="4" t="n">
+        <v>543.5700000000001</v>
+      </c>
+      <c r="H19" t="n">
         <v>529</v>
       </c>
       <c r="I19" t="n">
         <v>532</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -15367,14 +15149,18 @@
           <t>Chauffe-eau électrique 200L THERMOR Duralis Vertical Stable</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>573.62</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>603</v>
       </c>
-      <c r="E21" s="4" t="n">
-        <v>568</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -15389,15 +15175,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="5" t="n">
         <v>599</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -15412,16 +15198,16 @@
           <t>Chauffe-eau électrique 250L ATLANTIC Vizengo Vertical Sur Socle</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>782.95</v>
+      <c r="C22" s="4" t="n">
+        <v>763</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E22" s="4" t="n">
-        <v>760</v>
+      <c r="E22" t="n">
+        <v>810</v>
       </c>
       <c r="F22" t="n">
         <v>1012.28</v>
@@ -15436,7 +15222,7 @@
         <v>764</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -15456,19 +15242,19 @@
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>592.0599999999999</v>
+        <v>601.9</v>
       </c>
       <c r="D23" t="n">
         <v>606</v>
       </c>
       <c r="E23" t="n">
-        <v>633.88</v>
+        <v>655</v>
       </c>
       <c r="F23" t="n">
-        <v>683.12</v>
+        <v>746.9</v>
       </c>
       <c r="G23" t="n">
-        <v>605.99</v>
+        <v>651.5599999999999</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -15483,7 +15269,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -15507,13 +15293,13 @@
         <v>535</v>
       </c>
       <c r="E24" t="n">
-        <v>503.2</v>
+        <v>506</v>
       </c>
       <c r="F24" s="4" t="n">
         <v>468</v>
       </c>
       <c r="G24" t="n">
-        <v>514.03</v>
+        <v>514.04</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -15551,8 +15337,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E25" s="4" t="n">
-        <v>444</v>
+      <c r="E25" t="n">
+        <v>469</v>
       </c>
       <c r="F25" t="n">
         <v>594.3200000000001</v>
@@ -15565,15 +15351,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="5" t="n">
         <v>451</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -15588,35 +15374,37 @@
           <t>Chauffe-eau électrique 200L THERMOR Duralis Mural Vertical</t>
         </is>
       </c>
-      <c r="C26" s="4" t="n">
-        <v>372.85</v>
+      <c r="C26" t="n">
+        <v>437.95</v>
       </c>
       <c r="D26" t="n">
         <v>385</v>
       </c>
-      <c r="E26" t="n">
-        <v>434.5</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="F26" t="n">
         <v>440.9</v>
       </c>
       <c r="G26" t="n">
-        <v>382.79</v>
+        <v>397.6</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="5" t="n">
         <v>382</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -15632,7 +15420,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>474.28</v>
+        <v>432.86</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -15645,15 +15433,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>472.79</v>
+        <v>472.83</v>
       </c>
       <c r="G27" t="n">
         <v>432.66</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="H27" t="n">
+        <v>513.4</v>
       </c>
       <c r="I27" s="5" t="n">
         <v>426</v>
@@ -15697,7 +15483,7 @@
         <v>402.89</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>301.58</v>
+        <v>361.9</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -15712,7 +15498,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>16%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -15728,19 +15514,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>335.39</v>
+        <v>393.23</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>320</v>
       </c>
       <c r="E29" t="n">
-        <v>392.3</v>
+        <v>392</v>
       </c>
       <c r="F29" t="n">
         <v>411.02</v>
       </c>
       <c r="G29" t="n">
-        <v>334.48</v>
+        <v>347.08</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -15764,7 +15550,2701 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Produit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Référence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sobrico.com</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Factorydirect</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Domotelec</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ManoMano.fr</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Domomat.com</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Eau-Go</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ecart</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>154330-L</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>815.25</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>633</v>
+      </c>
+      <c r="E2" t="n">
+        <v>712</v>
+      </c>
+      <c r="F2" t="n">
+        <v>700.85</v>
+      </c>
+      <c r="G2" t="n">
+        <v>654.89</v>
+      </c>
+      <c r="H2" t="n">
+        <v>689</v>
+      </c>
+      <c r="I2" t="n">
+        <v>634</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>154430-L</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>848</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>795.15</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>795.49</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>89789671-L</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>281.59</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>256</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>051020-L</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Chaufféo Plus vertical mural</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>329.5</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>294</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>309.3</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>309</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>292045-L</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L THERMOR Duralis Vertical Stable</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>630.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>635</v>
+      </c>
+      <c r="E6" t="n">
+        <v>655</v>
+      </c>
+      <c r="F6" t="n">
+        <v>673.38</v>
+      </c>
+      <c r="G6" t="n">
+        <v>660.45</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>619.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>153120-L</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Zénéo Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>437.73</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>375</v>
+      </c>
+      <c r="E7" t="n">
+        <v>389</v>
+      </c>
+      <c r="F7" t="n">
+        <v>443.34</v>
+      </c>
+      <c r="G7" t="n">
+        <v>394.54</v>
+      </c>
+      <c r="H7" t="n">
+        <v>410.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>394.58</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>052130-L</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Chaufféo Plus vertical sur socle</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>551.74</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>494</v>
+      </c>
+      <c r="E8" t="n">
+        <v>526</v>
+      </c>
+      <c r="F8" t="n">
+        <v>549.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>509.91</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>495</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>261025-L</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 100L - THERMOR Steatis Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>229.21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>277</v>
+      </c>
+      <c r="E9" t="n">
+        <v>260</v>
+      </c>
+      <c r="F9" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>238.42</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>239</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>261049-L</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 100L THERMOR Blindé Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>201</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>197.21</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>192.92</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>154120-L</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Vizengo Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>809.4400000000001</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>551.4400000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>794.54</v>
+      </c>
+      <c r="G11" t="n">
+        <v>508.86</v>
+      </c>
+      <c r="H11" t="n">
+        <v>634.1799999999999</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>508</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>023115-L</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L ATLANTIC Chaufféo horizontal sortie basse</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>423.07</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>496.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>423.29</v>
+      </c>
+      <c r="H12" t="n">
+        <v>542.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>432.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>7605044-L</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L DE DIETRICH Cor-Email THS Vertical Socle</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>609.99</v>
+      </c>
+      <c r="G13" t="n">
+        <v>599.91</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>590</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>023110-L</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 100L ATLANTIC Chaufféo horizontal sortie basse</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>367.12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>412.83</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>359.09</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>368</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>89789651-L</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 100L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>224.99</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>153115-L</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L ATLANTIC Zénéo Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>338.51</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>331</v>
+      </c>
+      <c r="E16" t="n">
+        <v>343</v>
+      </c>
+      <c r="F16" t="n">
+        <v>374.18</v>
+      </c>
+      <c r="G16" t="n">
+        <v>352.76</v>
+      </c>
+      <c r="H16" t="n">
+        <v>401</v>
+      </c>
+      <c r="I16" t="n">
+        <v>343.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>154320-L</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Zénéo - Vertical sur socle</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>661.55</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>642</v>
+      </c>
+      <c r="F17" t="n">
+        <v>649.63</v>
+      </c>
+      <c r="G17" t="n">
+        <v>622.5</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>599</v>
+      </c>
+      <c r="I17" t="n">
+        <v>609</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>023120-L</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Chaufféo horizontal sortie basse</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>522.9</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>472.97</v>
+      </c>
+      <c r="H18" t="n">
+        <v>602.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>479.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>154315-L</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L ATLANTIC Zénéo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>528</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>600.86</v>
+      </c>
+      <c r="F19" t="n">
+        <v>609.12</v>
+      </c>
+      <c r="G19" t="n">
+        <v>543.5700000000001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>529</v>
+      </c>
+      <c r="I19" t="n">
+        <v>532</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>89789661-L</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>239.99</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>238</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>282072-L</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L THERMOR Duralis Vertical Stable</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>603</v>
+      </c>
+      <c r="E21" t="n">
+        <v>631</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>599</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>154425-L</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 250L ATLANTIC Vizengo Vertical Sur Socle</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>763</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>810</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1012.28</v>
+      </c>
+      <c r="G22" t="n">
+        <v>764.35</v>
+      </c>
+      <c r="H22" t="n">
+        <v>984</v>
+      </c>
+      <c r="I22" t="n">
+        <v>764</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>282074-L</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 250L THERMOR Duralis Vertical Stable</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>601.9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>606</v>
+      </c>
+      <c r="E23" t="n">
+        <v>655</v>
+      </c>
+      <c r="F23" t="n">
+        <v>746.9</v>
+      </c>
+      <c r="G23" t="n">
+        <v>651.5599999999999</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>607</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>292031-L</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L THERMOR Steatis Stable</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>535</v>
+      </c>
+      <c r="E24" t="n">
+        <v>506</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>468</v>
+      </c>
+      <c r="G24" t="n">
+        <v>514.04</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>509</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>154115-L</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L ATLANTIC Vizengo Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>556.62</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>469</v>
+      </c>
+      <c r="F25" t="n">
+        <v>594.3200000000001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>451.78</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>451</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>281077-L</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L THERMOR Duralis Mural Vertical</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>437.95</v>
+      </c>
+      <c r="D26" t="n">
+        <v>385</v>
+      </c>
+      <c r="E26" t="n">
+        <v>435</v>
+      </c>
+      <c r="F26" t="n">
+        <v>440.9</v>
+      </c>
+      <c r="G26" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>382</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>022120-L</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Chauffeo vertical sur socle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>432.86</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>472.83</v>
+      </c>
+      <c r="G27" t="n">
+        <v>432.66</v>
+      </c>
+      <c r="H27" t="n">
+        <v>513.4</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>426</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>100019786-L</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L DE DIETRICH Cor-Email THS Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>402.89</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>361.9</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>362</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>871415-L</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L THERMOR Duralis Vertical Mural Compact</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>393.23</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>320</v>
+      </c>
+      <c r="E29" t="n">
+        <v>392</v>
+      </c>
+      <c r="F29" t="n">
+        <v>411.02</v>
+      </c>
+      <c r="G29" t="n">
+        <v>347.08</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>329</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Produit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Référence</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sobrico.com</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Factorydirect</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Domotelec</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ManoMano.fr</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Domomat.com</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sanitaire-pas-cher</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Eau-Go</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Ecart</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>154330-L</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>814.8</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>633</v>
+      </c>
+      <c r="E2" t="n">
+        <v>712</v>
+      </c>
+      <c r="F2" t="n">
+        <v>700.85</v>
+      </c>
+      <c r="G2" t="n">
+        <v>654.89</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>634</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>154430-L</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>848</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1091.39</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>662.62</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1011.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>795.49</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>89789671-L</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>281.59</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>255.9</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>256</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>051020-L</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Chaufféo Plus vertical mural</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>330.68</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>294</v>
+      </c>
+      <c r="E5" t="n">
+        <v>314</v>
+      </c>
+      <c r="F5" t="n">
+        <v>320.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>309.3</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>309</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>292045-L</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L THERMOR Duralis Vertical Stable</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>634.64</v>
+      </c>
+      <c r="D6" t="n">
+        <v>635</v>
+      </c>
+      <c r="E6" t="n">
+        <v>641</v>
+      </c>
+      <c r="F6" t="n">
+        <v>609.35</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>550.37</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>619.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>153120-L</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Zénéo Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>437.73</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>375</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>394.54</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>394.58</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>052130-L</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L ATLANTIC Chaufféo Plus vertical sur socle</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>555.76</v>
+      </c>
+      <c r="D8" t="n">
+        <v>494</v>
+      </c>
+      <c r="E8" t="n">
+        <v>494</v>
+      </c>
+      <c r="F8" t="n">
+        <v>540.77</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>424.92</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>495</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>261025-L</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 100L - THERMOR Steatis Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>229.21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>277</v>
+      </c>
+      <c r="E9" t="n">
+        <v>260</v>
+      </c>
+      <c r="F9" t="n">
+        <v>265.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>238.42</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>239</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>261049-L</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 100L THERMOR Blindé Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>201</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>192.91</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>154120-L</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Vizengo Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>658.8</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>551.4400000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>794.54</v>
+      </c>
+      <c r="G11" t="n">
+        <v>508.86</v>
+      </c>
+      <c r="H11" t="n">
+        <v>634.1799999999999</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>508</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>023115-L</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L ATLANTIC Chaufféo horizontal sortie basse</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>495.9</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>496.9</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>423.29</v>
+      </c>
+      <c r="H12" t="n">
+        <v>542.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>432.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>7605044-L</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L DE DIETRICH Cor-Email THS Vertical Socle</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>609.99</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>589.9</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>590</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>023110-L</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 100L ATLANTIC Chaufféo horizontal sortie basse</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>397.54</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>412.79</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>359.09</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>368</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>89789651-L</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 100L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>224.99</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>153115-L</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L ATLANTIC Zénéo Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>369.8</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>331</v>
+      </c>
+      <c r="E16" t="n">
+        <v>343</v>
+      </c>
+      <c r="F16" t="n">
+        <v>374.15</v>
+      </c>
+      <c r="G16" t="n">
+        <v>352.76</v>
+      </c>
+      <c r="H16" t="n">
+        <v>401</v>
+      </c>
+      <c r="I16" t="n">
+        <v>343.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>154320-L</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Zénéo - Vertical sur socle</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>661.55</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>606</v>
+      </c>
+      <c r="F17" t="n">
+        <v>648.12</v>
+      </c>
+      <c r="G17" t="n">
+        <v>614.38</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>599</v>
+      </c>
+      <c r="I17" t="n">
+        <v>609</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>023120-L</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Chaufféo horizontal sortie basse</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>529.09</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>516.7</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>394.14</v>
+      </c>
+      <c r="H18" t="n">
+        <v>602.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>479.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>154315-L</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L ATLANTIC Zénéo Vertical sur Socle</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>583.91</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>600.86</v>
+      </c>
+      <c r="F19" t="n">
+        <v>609.0700000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>543.5599999999999</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>529</v>
+      </c>
+      <c r="I19" t="n">
+        <v>532</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>89789661-L</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L DE DIETRICH CEB Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>239.99</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>238</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>282072-L</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L THERMOR Duralis Vertical Stable</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>573.62</v>
+      </c>
+      <c r="D21" t="n">
+        <v>603</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>568</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>611.5</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>599</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>154425-L</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 250L ATLANTIC Vizengo Vertical Sur Socle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>782.95</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>760</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1012.28</v>
+      </c>
+      <c r="G22" t="n">
+        <v>764.35</v>
+      </c>
+      <c r="H22" t="n">
+        <v>984</v>
+      </c>
+      <c r="I22" t="n">
+        <v>764</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>282074-L</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 250L THERMOR Duralis Vertical Stable</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>592.0599999999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>606</v>
+      </c>
+      <c r="E23" t="n">
+        <v>633.88</v>
+      </c>
+      <c r="F23" t="n">
+        <v>683.12</v>
+      </c>
+      <c r="G23" t="n">
+        <v>605.99</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>607</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>292031-L</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 300L THERMOR Steatis Stable</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>535</v>
+      </c>
+      <c r="E24" t="n">
+        <v>503.2</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>468</v>
+      </c>
+      <c r="G24" t="n">
+        <v>514.03</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>509</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>154115-L</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L ATLANTIC Vizengo Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>556.62</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>444</v>
+      </c>
+      <c r="F25" t="n">
+        <v>594.3200000000001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>451.78</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>451</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>281077-L</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L THERMOR Duralis Mural Vertical</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>372.85</v>
+      </c>
+      <c r="D26" t="n">
+        <v>385</v>
+      </c>
+      <c r="E26" t="n">
+        <v>434.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>440.9</v>
+      </c>
+      <c r="G26" t="n">
+        <v>382.79</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>382</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>022120-L</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L ATLANTIC Chauffeo vertical sur socle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>474.28</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>472.79</v>
+      </c>
+      <c r="G27" t="n">
+        <v>432.66</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>426</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>100019786-L</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 200L DE DIETRICH Cor-Email THS Vertical Mural</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>402.89</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>301.58</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>362</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>871415-L</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Chauffe-eau électrique 150L THERMOR Duralis Vertical Mural Compact</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>335.39</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>320</v>
+      </c>
+      <c r="E29" t="n">
+        <v>392.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>411.02</v>
+      </c>
+      <c r="G29" t="n">
+        <v>334.48</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>329</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15889,7 +18369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16012,708 +18492,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Produit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Référence</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Sobrico.com</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Factorydirect</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Domotelec</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ManoMano.fr</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Domomat.com</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sanitaire-pas-cher</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Eau-Go</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Ecart</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>154430-L</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>848</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1126.08</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>662.62</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1011.6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>795.49</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>154330-L</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>706.22</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>712</v>
-      </c>
-      <c r="F3" t="n">
-        <v>700.85</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>545.74</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>634</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>051020-L</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 200L ATLANTIC Chaufféo Plus vertical mural</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>330.68</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>294</v>
-      </c>
-      <c r="E4" t="n">
-        <v>314</v>
-      </c>
-      <c r="F4" t="n">
-        <v>320.9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>309.3</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>309</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Produit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Référence</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Sobrico.com</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Factorydirect</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Domotelec</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ManoMano.fr</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Domomat.com</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sanitaire-pas-cher</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Eau-Go</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Ecart</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>023115-L</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 150L ATLANTIC Chaufféo horizontal sortie basse</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>468.5</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>496.9</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>423.29</v>
-      </c>
-      <c r="H2" t="n">
-        <v>542.4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>432.25</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Produit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Référence</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Sobrico.com</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Factorydirect</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Domotelec</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ManoMano.fr</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Domomat.com</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sanitaire-pas-cher</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Eau-Go</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Ecart</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>261049-L</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 100L THERMOR Blindé Vertical Mural</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>247.5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>201</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>197.21</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>160.76</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>199.5</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>154120-L</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 200L ATLANTIC Vizengo Vertical Mural</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>658.8</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>551.4400000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>794.54</v>
-      </c>
-      <c r="G3" t="n">
-        <v>508.86</v>
-      </c>
-      <c r="H3" t="n">
-        <v>634.1799999999999</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>508</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Produit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Référence</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Sobrico.com</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Factorydirect</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Domotelec</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ManoMano.fr</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Domomat.com</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sanitaire-pas-cher</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Eau-Go</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Ecart</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>154330-L</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 300L ATLANTIC Zénéo Vertical sur Socle</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>706.22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>633</v>
-      </c>
-      <c r="E2" t="n">
-        <v>712</v>
-      </c>
-      <c r="F2" t="n">
-        <v>700.85</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>545.74</v>
-      </c>
-      <c r="H2" t="n">
-        <v>689</v>
-      </c>
-      <c r="I2" t="n">
-        <v>634</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>154430-L</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 300L ATLANTIC Vizengo Vertical sur Socle</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>782.95</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>760</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1012.28</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>636.96</v>
-      </c>
-      <c r="H3" t="n">
-        <v>984</v>
-      </c>
-      <c r="I3" t="n">
-        <v>764</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>89789671-L</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chauffe-eau électrique 200L DE DIETRICH CEB Vertical Mural</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>281.59</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>204.08</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>256</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>